--- a/01_基本設計書/01_基本設計書/チーム1/基本設計書_ログイン画面(金原).xlsx
+++ b/01_基本設計書/01_基本設計書/チーム1/基本設計書_ログイン画面(金原).xlsx
@@ -19,13 +19,13 @@
     <sheet name="書式文字" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">書式文字!$A$1:$F$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト（ログイン）'!$A$1:$AG$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$41</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'IO関連図'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面レイアウト（ログイン）'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙'!A1:AF41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'IO関連図'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト（ログイン）'!A1:AG44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'書式文字'!A1:F23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>基本設計書</t>
   </si>
@@ -114,13 +114,6 @@
   </si>
   <si>
     <t>備考</t>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>画面レイアウト</t>
@@ -682,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -928,6 +921,24 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1030,21 +1041,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D91BA2-18BB-0B60-0E81-013995D0DB1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15878175" y="971550"/>
-          <a:ext cx="1466850" cy="857250"/>
+          <a:off x="171450" y="971550"/>
+          <a:ext cx="723900" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1067,7 +1072,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1102,18 +1107,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート: 準備 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B3B3C4-C910-3F06-160F-9E5CB8627852}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05D91BA2-18BB-0B60-0E81-013995D0DB1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="フローチャート: 準備 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1142,7 +1138,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1177,18 +1173,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート: 準備 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{23B3B3C4-C910-3F06-160F-9E5CB8627852}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="フローチャート: 準備 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1217,7 +1204,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1252,18 +1239,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート: 準備 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="フローチャート: 準備 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1292,7 +1270,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1327,24 +1305,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート: 磁気ディスク 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96658B0-555E-906A-4BD7-51D01064C717}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="フローチャート: 磁気ディスク 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18383250" y="3486150"/>
-          <a:ext cx="2276475" cy="1285875"/>
+          <a:off x="1257300" y="3486150"/>
+          <a:ext cx="1095375" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1367,7 +1336,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1402,18 +1371,9 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBF201B-5833-47D7-AAF7-223CF13AE424}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D96658B0-555E-906A-4BD7-51D01064C717}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1442,7 +1402,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1475,35 +1435,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50242D42-C0C8-4E4E-A0BD-C0A6E039BEF2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8BBF201B-5833-47D7-AAF7-223CF13AE424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{05D91BA2-18BB-0B60-0E81-013995D0DB1E}" end="{23B3B3C4-C910-3F06-160F-9E5CB8627852}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="895350" y="1400175"/>
-          <a:ext cx="371475" cy="33338"/>
+          <a:ext cx="371475" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1540,34 +1482,17 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FE6171-3072-7E1D-D381-E8BE6D46BEA1}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50242D42-C0C8-4E4E-A0BD-C0A6E039BEF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="4" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1905000" y="1419225"/>
-          <a:ext cx="609600" cy="52388"/>
+          <a:ext cx="609600" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1606,27 +1531,10 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689D7005-639B-6D1F-942C-9CC6F35F8E51}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B2FE6171-3072-7E1D-D381-E8BE6D46BEA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="5" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
@@ -1666,36 +1574,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>128588</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD760313-50C5-E9EA-3EFB-6F815E1E3F54}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{689D7005-639B-6D1F-942C-9CC6F35F8E51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="1971675" y="1790700"/>
-          <a:ext cx="985838" cy="1714500"/>
+          <a:ext cx="981075" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1735,28 +1626,10 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDC56DB-7A42-D458-897E-462DAD49175B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DD760313-50C5-E9EA-3EFB-6F815E1E3F54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}" end="{8BBF201B-5833-47D7-AAF7-223CF13AE424}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
@@ -1790,42 +1663,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>233363</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F88FDEE-041E-A954-E764-79C422A805E3}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9DDC56DB-7A42-D458-897E-462DAD49175B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="6" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{23B3B3C4-C910-3F06-160F-9E5CB8627852}" end="{D96658B0-555E-906A-4BD7-51D01064C717}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1652588" y="1752600"/>
+          <a:off x="1647825" y="1752600"/>
           <a:ext cx="152400" cy="1733550"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1858,40 +1713,22 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DFDFA0-166D-2C4C-4F97-AEBE6A9B626B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F88FDEE-041E-A954-E764-79C422A805E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{9FC059A1-5DF4-0205-D349-0A4CF05C4BEE}" end="{76DF78F0-E7FA-868D-AE16-F942DFC82B78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400425" y="1471613"/>
+          <a:off x="3400425" y="1466850"/>
           <a:ext cx="552450" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2221,20 +2058,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26:AE26"/>
+    <sheetView topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24:AE25" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="13" customWidth="1"/>
-    <col min="7" max="32" width="4.125" style="2" customWidth="1"/>
-    <col min="33" max="36" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
     <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12">
+    <row r="1" ht="12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2268,7 +2137,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" ht="12.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2302,13 +2171,13 @@
       <c r="AE2" s="6"/>
       <c r="AF2" s="7"/>
     </row>
-    <row r="3" spans="1:32" ht="12.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="8"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="AF3" s="9"/>
     </row>
-    <row r="4" spans="1:32" ht="12.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="8"/>
       <c r="B4" s="76" t="s">
         <v>0</v>
@@ -2344,7 +2213,7 @@
       <c r="AE4" s="76"/>
       <c r="AF4" s="9"/>
     </row>
-    <row r="5" spans="1:32" ht="12.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="8"/>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -2378,37 +2247,37 @@
       <c r="AE5" s="76"/>
       <c r="AF5" s="9"/>
     </row>
-    <row r="6" spans="1:32" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="8"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="AF6" s="9"/>
     </row>
-    <row r="7" spans="1:32" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="8"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="AF7" s="9"/>
     </row>
-    <row r="8" spans="1:32" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="8"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="AF8" s="9"/>
     </row>
-    <row r="9" spans="1:32" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="8"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="AF9" s="9"/>
     </row>
-    <row r="10" spans="1:32" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="8"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="AF10" s="9"/>
     </row>
-    <row r="11" spans="1:32" ht="12">
+    <row r="11" ht="12">
       <c r="A11" s="8"/>
       <c r="B11" s="77" t="s">
         <v>1</v>
@@ -2451,7 +2320,7 @@
       </c>
       <c r="AE11" s="79"/>
     </row>
-    <row r="12" spans="1:32" ht="12">
+    <row r="12" ht="12">
       <c r="A12" s="8"/>
       <c r="B12" s="80" t="s">
         <v>6</v>
@@ -2494,7 +2363,7 @@
       </c>
       <c r="AE12" s="82"/>
     </row>
-    <row r="13" spans="1:32" ht="12">
+    <row r="13" ht="12">
       <c r="A13" s="8"/>
       <c r="B13" s="83"/>
       <c r="C13" s="84"/>
@@ -2527,49 +2396,49 @@
       <c r="AD13" s="83"/>
       <c r="AE13" s="85"/>
     </row>
-    <row r="14" spans="1:32" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="8"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="AF14" s="9"/>
     </row>
-    <row r="15" spans="1:32" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="8"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="AF15" s="9"/>
     </row>
-    <row r="16" spans="1:32" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="8"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="AF16" s="9"/>
     </row>
-    <row r="17" spans="1:32" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="8"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="AF17" s="9"/>
     </row>
-    <row r="18" spans="1:32" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="8"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="AF18" s="9"/>
     </row>
-    <row r="19" spans="1:32" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="8"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="AF19" s="9"/>
     </row>
-    <row r="20" spans="1:32" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="8"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="AF20" s="9"/>
     </row>
-    <row r="21" spans="1:32" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="8"/>
       <c r="B21" s="22" t="s">
         <v>11</v>
@@ -2578,13 +2447,13 @@
       <c r="F21" s="2"/>
       <c r="AF21" s="9"/>
     </row>
-    <row r="22" spans="1:32" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="AF22" s="9"/>
     </row>
-    <row r="23" spans="1:32" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="64" t="s">
         <v>12</v>
@@ -2626,7 +2495,7 @@
       <c r="AE23" s="66"/>
       <c r="AF23" s="9"/>
     </row>
-    <row r="24" spans="1:32" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="8"/>
       <c r="B24" s="64" t="s">
         <v>16</v>
@@ -2661,14 +2530,14 @@
       <c r="Z24" s="74"/>
       <c r="AA24" s="74"/>
       <c r="AB24" s="75"/>
-      <c r="AC24" s="70" t="s">
+      <c r="AC24" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="72"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="109"/>
       <c r="AF24" s="9"/>
     </row>
-    <row r="25" spans="1:32" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="8"/>
       <c r="B25" s="64" t="s">
         <v>19</v>
@@ -2703,14 +2572,14 @@
       <c r="Z25" s="74"/>
       <c r="AA25" s="74"/>
       <c r="AB25" s="75"/>
-      <c r="AC25" s="70" t="s">
+      <c r="AC25" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="72"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="109"/>
       <c r="AF25" s="9"/>
     </row>
-    <row r="26" spans="1:32" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="64"/>
       <c r="C26" s="65"/>
@@ -2744,7 +2613,7 @@
       <c r="AE26" s="66"/>
       <c r="AF26" s="9"/>
     </row>
-    <row r="27" spans="1:32" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="8"/>
       <c r="B27" s="64"/>
       <c r="C27" s="65"/>
@@ -2778,7 +2647,7 @@
       <c r="AE27" s="66"/>
       <c r="AF27" s="9"/>
     </row>
-    <row r="28" spans="1:32" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="64"/>
       <c r="C28" s="65"/>
@@ -2812,7 +2681,7 @@
       <c r="AE28" s="66"/>
       <c r="AF28" s="9"/>
     </row>
-    <row r="29" spans="1:32" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="64"/>
       <c r="C29" s="65"/>
@@ -2846,7 +2715,7 @@
       <c r="AE29" s="66"/>
       <c r="AF29" s="9"/>
     </row>
-    <row r="30" spans="1:32" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="64"/>
       <c r="C30" s="65"/>
@@ -2880,7 +2749,7 @@
       <c r="AE30" s="66"/>
       <c r="AF30" s="9"/>
     </row>
-    <row r="31" spans="1:32" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="64"/>
       <c r="C31" s="65"/>
@@ -2914,7 +2783,7 @@
       <c r="AE31" s="66"/>
       <c r="AF31" s="9"/>
     </row>
-    <row r="32" spans="1:32" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="64"/>
       <c r="C32" s="65"/>
@@ -2948,7 +2817,7 @@
       <c r="AE32" s="66"/>
       <c r="AF32" s="9"/>
     </row>
-    <row r="33" spans="1:32" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="64"/>
       <c r="C33" s="65"/>
@@ -2982,7 +2851,7 @@
       <c r="AE33" s="66"/>
       <c r="AF33" s="9"/>
     </row>
-    <row r="34" spans="1:32" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="64"/>
       <c r="C34" s="65"/>
@@ -3016,7 +2885,7 @@
       <c r="AE34" s="66"/>
       <c r="AF34" s="9"/>
     </row>
-    <row r="35" spans="1:32" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="8"/>
       <c r="B35" s="64"/>
       <c r="C35" s="65"/>
@@ -3050,7 +2919,7 @@
       <c r="AE35" s="66"/>
       <c r="AF35" s="9"/>
     </row>
-    <row r="36" spans="1:32" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="B36" s="64"/>
       <c r="C36" s="65"/>
@@ -3084,7 +2953,7 @@
       <c r="AE36" s="66"/>
       <c r="AF36" s="9"/>
     </row>
-    <row r="37" spans="1:32" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="8"/>
       <c r="B37" s="64"/>
       <c r="C37" s="65"/>
@@ -3118,7 +2987,7 @@
       <c r="AE37" s="66"/>
       <c r="AF37" s="9"/>
     </row>
-    <row r="38" spans="1:32" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="8"/>
       <c r="B38" s="64"/>
       <c r="C38" s="65"/>
@@ -3152,7 +3021,7 @@
       <c r="AE38" s="66"/>
       <c r="AF38" s="9"/>
     </row>
-    <row r="39" spans="1:32" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="8"/>
       <c r="B39" s="64"/>
       <c r="C39" s="65"/>
@@ -3186,7 +3055,7 @@
       <c r="AE39" s="66"/>
       <c r="AF39" s="9"/>
     </row>
-    <row r="40" spans="1:32" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="64"/>
       <c r="C40" s="65"/>
@@ -3220,7 +3089,7 @@
       <c r="AE40" s="66"/>
       <c r="AF40" s="9"/>
     </row>
-    <row r="41" spans="1:32" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -3258,87 +3127,87 @@
   <mergeCells count="83">
     <mergeCell ref="B4:AE5"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="B12:F13"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="G11:L11"/>
     <mergeCell ref="G12:L13"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
     <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
     <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
     <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
     <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3352,21 +3221,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BX44"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="13" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
-    <col min="34" max="37" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="92" t="s">
         <v>21</v>
       </c>
@@ -3416,7 +3318,7 @@
       <c r="BC1" s="90"/>
       <c r="BD1" s="90"/>
     </row>
-    <row r="2" spans="1:76" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
@@ -3472,9 +3374,9 @@
       <c r="BA2" s="90"/>
       <c r="BB2" s="90"/>
     </row>
-    <row r="3" spans="1:76" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="80" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="81"/>
@@ -3483,7 +3385,7 @@
       <c r="E3" s="81"/>
       <c r="F3" s="82"/>
       <c r="G3" s="80" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="81"/>
@@ -3492,7 +3394,7 @@
       <c r="K3" s="81"/>
       <c r="L3" s="82"/>
       <c r="M3" s="80" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
       <c r="N3" s="81"/>
@@ -3512,12 +3414,12 @@
       <c r="AB3" s="81"/>
       <c r="AC3" s="82"/>
       <c r="AD3" s="80" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="82"/>
       <c r="AF3" s="80" t="str">
-        <f>表紙!AD12</f>
+        <f>'表紙'!AD12</f>
         <v>金原</v>
       </c>
       <c r="AG3" s="82"/>
@@ -3535,7 +3437,7 @@
       <c r="BC3" s="91"/>
       <c r="BD3" s="91"/>
     </row>
-    <row r="4" spans="1:76" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="83"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -3583,7 +3485,7 @@
       <c r="BC4" s="91"/>
       <c r="BD4" s="91"/>
     </row>
-    <row r="5" spans="1:76" ht="12.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -3618,7 +3520,7 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:76" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="51"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -3671,7 +3573,7 @@
       <c r="BW6" s="52"/>
       <c r="BX6" s="53"/>
     </row>
-    <row r="7" spans="1:76" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="54"/>
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
@@ -3707,7 +3609,7 @@
       <c r="BW7" s="55"/>
       <c r="BX7" s="56"/>
     </row>
-    <row r="8" spans="1:76" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="54"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -3740,7 +3642,7 @@
       <c r="BW8" s="55"/>
       <c r="BX8" s="56"/>
     </row>
-    <row r="9" spans="1:76" ht="12.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="54"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -3774,7 +3676,7 @@
       <c r="BW9" s="55"/>
       <c r="BX9" s="56"/>
     </row>
-    <row r="10" spans="1:76" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="54"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -3808,7 +3710,7 @@
       <c r="BW10" s="55"/>
       <c r="BX10" s="56"/>
     </row>
-    <row r="11" spans="1:76" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="54"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
@@ -3841,7 +3743,7 @@
       <c r="BW11" s="55"/>
       <c r="BX11" s="56"/>
     </row>
-    <row r="12" spans="1:76" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="54"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
@@ -3874,7 +3776,7 @@
       <c r="BW12" s="55"/>
       <c r="BX12" s="56"/>
     </row>
-    <row r="13" spans="1:76" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="54"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -3906,7 +3808,7 @@
       <c r="BW13" s="55"/>
       <c r="BX13" s="56"/>
     </row>
-    <row r="14" spans="1:76" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="54"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
@@ -3940,7 +3842,7 @@
       <c r="BW14" s="55"/>
       <c r="BX14" s="56"/>
     </row>
-    <row r="15" spans="1:76" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="54"/>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -3974,7 +3876,7 @@
       <c r="BW15" s="55"/>
       <c r="BX15" s="56"/>
     </row>
-    <row r="16" spans="1:76" ht="12.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="54"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
@@ -4001,7 +3903,7 @@
       <c r="BW16" s="55"/>
       <c r="BX16" s="56"/>
     </row>
-    <row r="17" spans="1:76" ht="12.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="54"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
@@ -4029,7 +3931,7 @@
       <c r="BW17" s="55"/>
       <c r="BX17" s="56"/>
     </row>
-    <row r="18" spans="1:76" ht="12.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="54"/>
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
@@ -4056,7 +3958,7 @@
       <c r="BW18" s="55"/>
       <c r="BX18" s="56"/>
     </row>
-    <row r="19" spans="1:76" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="54"/>
       <c r="B19" s="55"/>
       <c r="C19" s="55"/>
@@ -4083,7 +3985,7 @@
       <c r="BW19" s="55"/>
       <c r="BX19" s="56"/>
     </row>
-    <row r="20" spans="1:76" ht="12.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="54"/>
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
@@ -4110,7 +4012,7 @@
       <c r="BW20" s="55"/>
       <c r="BX20" s="56"/>
     </row>
-    <row r="21" spans="1:76" ht="12.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="54"/>
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
@@ -4137,7 +4039,7 @@
       <c r="BW21" s="55"/>
       <c r="BX21" s="56"/>
     </row>
-    <row r="22" spans="1:76" ht="12.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="54"/>
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
@@ -4164,7 +4066,7 @@
       <c r="BW22" s="55"/>
       <c r="BX22" s="56"/>
     </row>
-    <row r="23" spans="1:76" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="54"/>
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
@@ -4191,7 +4093,7 @@
       <c r="BW23" s="55"/>
       <c r="BX23" s="56"/>
     </row>
-    <row r="24" spans="1:76" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="54"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
@@ -4226,7 +4128,7 @@
       <c r="BW24" s="55"/>
       <c r="BX24" s="56"/>
     </row>
-    <row r="25" spans="1:76" ht="12.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
@@ -4261,7 +4163,7 @@
       <c r="BW25" s="55"/>
       <c r="BX25" s="56"/>
     </row>
-    <row r="26" spans="1:76" ht="12.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -4296,7 +4198,7 @@
       <c r="BW26" s="55"/>
       <c r="BX26" s="56"/>
     </row>
-    <row r="27" spans="1:76" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="54"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -4331,7 +4233,7 @@
       <c r="BW27" s="55"/>
       <c r="BX27" s="56"/>
     </row>
-    <row r="28" spans="1:76" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="54"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -4366,7 +4268,7 @@
       <c r="BW28" s="55"/>
       <c r="BX28" s="56"/>
     </row>
-    <row r="29" spans="1:76" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="54"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
@@ -4401,7 +4303,7 @@
       <c r="BW29" s="55"/>
       <c r="BX29" s="56"/>
     </row>
-    <row r="30" spans="1:76" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -4437,7 +4339,7 @@
       <c r="BW30" s="55"/>
       <c r="BX30" s="56"/>
     </row>
-    <row r="31" spans="1:76" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="54"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -4466,7 +4368,7 @@
       <c r="BW31" s="55"/>
       <c r="BX31" s="56"/>
     </row>
-    <row r="32" spans="1:76" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4504,7 +4406,7 @@
       <c r="BW32" s="55"/>
       <c r="BX32" s="56"/>
     </row>
-    <row r="33" spans="1:76" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4542,7 +4444,7 @@
       <c r="BW33" s="55"/>
       <c r="BX33" s="56"/>
     </row>
-    <row r="34" spans="1:76" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4574,7 +4476,7 @@
       <c r="BW34" s="55"/>
       <c r="BX34" s="56"/>
     </row>
-    <row r="35" spans="1:76" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="8"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -4605,7 +4507,7 @@
       <c r="BW35" s="55"/>
       <c r="BX35" s="56"/>
     </row>
-    <row r="36" spans="1:76" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -4643,7 +4545,7 @@
       <c r="BW36" s="55"/>
       <c r="BX36" s="56"/>
     </row>
-    <row r="37" spans="1:76" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="8"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4674,7 +4576,7 @@
       <c r="BW37" s="55"/>
       <c r="BX37" s="56"/>
     </row>
-    <row r="38" spans="1:76" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="8"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -4713,7 +4615,7 @@
       <c r="BW38" s="55"/>
       <c r="BX38" s="56"/>
     </row>
-    <row r="39" spans="1:76" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="8"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -4752,7 +4654,7 @@
       <c r="BW39" s="55"/>
       <c r="BX39" s="56"/>
     </row>
-    <row r="40" spans="1:76" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4820,7 +4722,7 @@
       <c r="BW40" s="58"/>
       <c r="BX40" s="59"/>
     </row>
-    <row r="41" spans="1:76" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="23" t="s">
         <v>22</v>
       </c>
@@ -4828,7 +4730,7 @@
       <c r="F41" s="2"/>
       <c r="AG41" s="9"/>
       <c r="AR41" s="60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS41" s="55"/>
       <c r="AT41" s="55"/>
@@ -4863,7 +4765,7 @@
       <c r="BW41" s="55"/>
       <c r="BX41" s="56"/>
     </row>
-    <row r="42" spans="1:76" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="8"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4902,7 +4804,7 @@
       <c r="BW42" s="55"/>
       <c r="BX42" s="56"/>
     </row>
-    <row r="43" spans="1:76" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="8"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4941,7 +4843,7 @@
       <c r="BW43" s="55"/>
       <c r="BX43" s="56"/>
     </row>
-    <row r="44" spans="1:76" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5011,20 +4913,20 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="AR1:BD1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:BB2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AR1:BD1"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:BB2"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="AR3:AS4"/>
     <mergeCell ref="AT3:AU4"/>
     <mergeCell ref="AV3:BB4"/>
@@ -5044,23 +4946,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="13" customWidth="1"/>
-    <col min="7" max="33" width="4.125" style="2" customWidth="1"/>
-    <col min="34" max="37" width="4" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="4.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="4.125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="4" style="2" customWidth="1"/>
+    <col min="35" max="35" width="4" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4" style="2" customWidth="1"/>
+    <col min="37" max="37" width="4" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="12.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -5095,7 +5030,7 @@
       <c r="AF1" s="92"/>
       <c r="AG1" s="92"/>
     </row>
-    <row r="2" spans="1:36" ht="12">
+    <row r="2" ht="12">
       <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
@@ -5140,9 +5075,9 @@
       </c>
       <c r="AG2" s="79"/>
     </row>
-    <row r="3" spans="1:36" ht="12">
+    <row r="3" ht="12">
       <c r="A3" s="80" t="str">
-        <f>表紙!B12</f>
+        <f>'表紙'!B12</f>
         <v>勤怠管理システム</v>
       </c>
       <c r="B3" s="81"/>
@@ -5151,7 +5086,7 @@
       <c r="E3" s="81"/>
       <c r="F3" s="82"/>
       <c r="G3" s="80" t="str">
-        <f>表紙!G12</f>
+        <f>'表紙'!G12</f>
         <v>基本情報管理</v>
       </c>
       <c r="H3" s="81"/>
@@ -5160,7 +5095,7 @@
       <c r="K3" s="81"/>
       <c r="L3" s="82"/>
       <c r="M3" s="80" t="str">
-        <f>表紙!M12</f>
+        <f>'表紙'!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
       <c r="N3" s="81"/>
@@ -5180,7 +5115,7 @@
       <c r="AB3" s="81"/>
       <c r="AC3" s="82"/>
       <c r="AD3" s="80" t="str">
-        <f>表紙!AB12</f>
+        <f>'表紙'!AB12</f>
         <v>TPC</v>
       </c>
       <c r="AE3" s="82"/>
@@ -5189,7 +5124,7 @@
       </c>
       <c r="AG3" s="82"/>
     </row>
-    <row r="4" spans="1:36" ht="12">
+    <row r="4" ht="12">
       <c r="A4" s="83"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -5224,7 +5159,7 @@
       <c r="AF4" s="83"/>
       <c r="AG4" s="85"/>
     </row>
-    <row r="5" spans="1:36" ht="12.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -5259,7 +5194,7 @@
       <c r="AF5" s="16"/>
       <c r="AG5" s="18"/>
     </row>
-    <row r="6" spans="1:36" ht="12.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -5294,7 +5229,7 @@
       <c r="AF6" s="20"/>
       <c r="AG6" s="21"/>
     </row>
-    <row r="7" spans="1:36" ht="12.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="8"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5329,7 +5264,7 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:36" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="8"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5364,10 +5299,10 @@
       <c r="AF8" s="25"/>
       <c r="AG8" s="9"/>
       <c r="AI8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="12.75" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="8"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5402,10 +5337,10 @@
       <c r="AF9" s="25"/>
       <c r="AG9" s="9"/>
       <c r="AI9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="12.75" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="8"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5440,7 +5375,7 @@
       <c r="AF10" s="25"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:36" ht="12.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="8"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5475,7 +5410,7 @@
       <c r="AF11" s="25"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="1:36" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="8"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5510,21 +5445,18 @@
       <c r="AF12" s="25"/>
       <c r="AG12" s="9"/>
     </row>
-    <row r="13" spans="1:36" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="8"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -5549,7 +5481,7 @@
       <c r="AF13" s="25"/>
       <c r="AG13" s="9"/>
     </row>
-    <row r="14" spans="1:36" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="8"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -5584,24 +5516,20 @@
       <c r="AF14" s="25"/>
       <c r="AG14" s="9"/>
     </row>
-    <row r="15" spans="1:36" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="8"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15"/>
       <c r="H15" s="101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
       <c r="K15" s="102"/>
       <c r="L15" s="103"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
@@ -5621,10 +5549,10 @@
       <c r="AF15" s="30"/>
       <c r="AG15" s="9"/>
       <c r="AI15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="12.75" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="8"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5633,10 +5561,6 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -5659,10 +5583,10 @@
       <c r="AF16" s="30"/>
       <c r="AG16" s="9"/>
       <c r="AJ16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="12.75" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="8"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -5670,13 +5594,13 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
@@ -5701,10 +5625,10 @@
       <c r="AF17" s="30"/>
       <c r="AG17" s="9"/>
       <c r="AJ17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" ht="12.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="8"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -5713,14 +5637,6 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="26"/>
@@ -5739,19 +5655,18 @@
       <c r="AF18" s="30"/>
       <c r="AG18" s="9"/>
       <c r="AK18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="12.75" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="8"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19"/>
       <c r="H19" s="95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="104"/>
       <c r="J19" s="104"/>
@@ -5761,8 +5676,6 @@
       <c r="N19" s="104"/>
       <c r="O19" s="104"/>
       <c r="P19" s="105"/>
-      <c r="Q19"/>
-      <c r="R19"/>
       <c r="S19" s="26"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
@@ -5779,10 +5692,10 @@
       <c r="AF19" s="30"/>
       <c r="AG19" s="9"/>
       <c r="AL19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="12.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="8"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -5791,20 +5704,11 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S20" s="94"/>
-      <c r="T20"/>
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
       <c r="W20" s="25"/>
@@ -5819,10 +5723,10 @@
       <c r="AF20" s="30"/>
       <c r="AG20" s="9"/>
       <c r="AK20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" ht="12.75" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="8"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -5839,8 +5743,6 @@
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
-      <c r="Q21"/>
-      <c r="R21"/>
       <c r="S21" s="26"/>
       <c r="T21" s="25"/>
       <c r="U21" s="25"/>
@@ -5857,10 +5759,10 @@
       <c r="AF21" s="30"/>
       <c r="AG21" s="9"/>
       <c r="AL21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" ht="12.75" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -5895,7 +5797,7 @@
       <c r="AF22" s="30"/>
       <c r="AG22" s="9"/>
     </row>
-    <row r="23" spans="1:38" ht="12.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -5913,7 +5815,6 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
-      <c r="R23"/>
       <c r="S23" s="26"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
@@ -5930,7 +5831,7 @@
       <c r="AF23" s="30"/>
       <c r="AG23" s="9"/>
     </row>
-    <row r="24" spans="1:38" ht="12.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="8"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -5947,12 +5848,10 @@
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
-      <c r="Q24"/>
       <c r="R24" s="93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S24" s="106"/>
-      <c r="T24"/>
       <c r="U24" s="25"/>
       <c r="V24" s="26"/>
       <c r="W24" s="25"/>
@@ -5967,10 +5866,10 @@
       <c r="AF24" s="30"/>
       <c r="AG24" s="9"/>
       <c r="AI24" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" ht="12.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="8"/>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -5988,7 +5887,6 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
-      <c r="R25"/>
       <c r="S25" s="26"/>
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
@@ -6005,10 +5903,10 @@
       <c r="AF25" s="30"/>
       <c r="AG25" s="9"/>
       <c r="AJ25" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" ht="12.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -6043,7 +5941,7 @@
       <c r="AF26" s="30"/>
       <c r="AG26" s="9"/>
     </row>
-    <row r="27" spans="1:38" ht="12.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="8"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -6078,7 +5976,7 @@
       <c r="AF27" s="30"/>
       <c r="AG27" s="9"/>
     </row>
-    <row r="28" spans="1:38" ht="12.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -6113,7 +6011,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="9"/>
     </row>
-    <row r="29" spans="1:38" ht="12.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -6148,7 +6046,7 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="9"/>
     </row>
-    <row r="30" spans="1:38" ht="12.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -6183,7 +6081,7 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="9"/>
     </row>
-    <row r="31" spans="1:38" ht="12.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -6218,7 +6116,7 @@
       <c r="AF31" s="30"/>
       <c r="AG31" s="9"/>
     </row>
-    <row r="32" spans="1:38" ht="12.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -6253,7 +6151,7 @@
       <c r="AF32" s="30"/>
       <c r="AG32" s="9"/>
     </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -6288,7 +6186,7 @@
       <c r="AF33" s="30"/>
       <c r="AG33" s="9"/>
     </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -6323,7 +6221,7 @@
       <c r="AF34" s="30"/>
       <c r="AG34" s="9"/>
     </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="8"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -6358,7 +6256,7 @@
       <c r="AF35" s="30"/>
       <c r="AG35" s="9"/>
     </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -6393,7 +6291,7 @@
       <c r="AF36" s="30"/>
       <c r="AG36" s="9"/>
     </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="8"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -6428,7 +6326,7 @@
       <c r="AF37" s="30"/>
       <c r="AG37" s="9"/>
     </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="8"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -6463,7 +6361,7 @@
       <c r="AF38" s="30"/>
       <c r="AG38" s="9"/>
     </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="8"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -6498,7 +6396,7 @@
       <c r="AF39" s="30"/>
       <c r="AG39" s="9"/>
     </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -6533,7 +6431,7 @@
       <c r="AF40" s="30"/>
       <c r="AG40" s="9"/>
     </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="8"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -6568,7 +6466,7 @@
       <c r="AF41" s="30"/>
       <c r="AG41" s="9"/>
     </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="8"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -6603,11 +6501,11 @@
       <c r="AF42" s="25"/>
       <c r="AG42" s="9"/>
     </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="8"/>
       <c r="AG43" s="9"/>
     </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -6644,20 +6542,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="R24:S24"/>
     <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="M2:AC2"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R24:S24"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -6675,7 +6573,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" defaultColWidth="9" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.5" style="33" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="33" customWidth="1"/>
@@ -6686,45 +6584,45 @@
     <col min="7" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" ht="18">
       <c r="A1" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="33" t="s">
+    <row r="4">
+      <c r="A4" s="34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="34" t="s">
+      <c r="B4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+    </row>
+    <row r="5" customHeight="1" ht="30">
       <c r="A5" s="35">
         <v>6</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>49</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="35">
@@ -6734,33 +6632,33 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
+    <row r="6" customHeight="1" ht="30">
       <c r="A6" s="35">
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="35">
         <v>1234</v>
       </c>
       <c r="F6" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="30">
+      <c r="A7" s="96" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="B7" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>54</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="40">
@@ -6770,177 +6668,177 @@
         <v>1234.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1">
+    <row r="8" customHeight="1" ht="30">
       <c r="A8" s="97"/>
       <c r="B8" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="39">
         <v>1234</v>
       </c>
       <c r="F8" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="14"/>
+    <row r="10">
+      <c r="B10" s="43"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:6">
-      <c r="B10" s="43"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="33" t="s">
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="40">
+      <c r="A13" s="35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="40.5">
-      <c r="A13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>59</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" ht="40">
+      <c r="A14" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="40.5">
-      <c r="A14" s="35" t="s">
+      <c r="B14" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="30">
+      <c r="A18" s="35" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
-      <c r="A18" s="35" t="s">
+      <c r="B18" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>66</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="44" t="s">
+    </row>
+    <row r="19" customHeight="1" ht="30">
+      <c r="A19" s="35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>71</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="45">
+        <v>0.7948495370370371</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="30">
+      <c r="A20" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="45">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1">
-      <c r="A20" s="35" t="s">
+      <c r="B20" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>74</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="46">
-        <v>0.79484953703703709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.7948495370370371</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    <row r="25">
       <c r="B25" s="43"/>
     </row>
   </sheetData>
